--- a/RO/RO_Week_2_Data.xlsx
+++ b/RO/RO_Week_2_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steven/Desktop/5_CHEE_301B/CHEE_301B_Repo/RO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527C8428-165A-AE4E-B4E4-72A31C3A80C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7132C6A9-54E0-BC43-B05B-37029C449ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{5C059B2B-D63E-4144-8DAC-3D80433595BB}"/>
+    <workbookView xWindow="8240" yWindow="1420" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{5C059B2B-D63E-4144-8DAC-3D80433595BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/RO/RO_Week_2_Data.xlsx
+++ b/RO/RO_Week_2_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steven/Desktop/5_CHEE_301B/CHEE_301B_Repo/RO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7132C6A9-54E0-BC43-B05B-37029C449ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C322AFD-C88F-0D49-8FA7-354D01D78810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8240" yWindow="1420" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{5C059B2B-D63E-4144-8DAC-3D80433595BB}"/>
+    <workbookView xWindow="15560" yWindow="1440" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{5C059B2B-D63E-4144-8DAC-3D80433595BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>Run</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>Conductivity_C_(mS)</t>
-  </si>
-  <si>
-    <t>Conductivity_Mean_(mS)</t>
   </si>
   <si>
     <t>Conductivity_B_(mS)</t>
@@ -493,7 +490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53EA0F8-F041-5641-9775-29037CF8BE5D}">
   <dimension ref="A3:O13"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -956,7 +953,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -965,53 +962,46 @@
     <col min="4" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="str" cm="1">
-        <f t="array" ref="A1:C10">Sheet1!A4:C13</f>
-        <v>Probe</v>
-      </c>
-      <c r="B1" s="3" t="str">
-        <v>Run</v>
-      </c>
-      <c r="C1" s="3" t="str">
-        <v>Concentration_(g/L)</v>
-      </c>
-      <c r="D1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D2" cm="1">
-        <f t="array" ref="D2:F10">Sheet1!L5:N13</f>
-        <v>0.58489999999999998</v>
+        <f t="array" ref="D2:F2">Sheet1!L13:N13</f>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E2">
-        <v>0.58169999999999999</v>
+        <v>2.46E-2</v>
       </c>
       <c r="F2">
-        <v>0.58340000000000003</v>
-      </c>
-      <c r="G2" cm="1">
-        <f t="array" ref="G2:G10">Sheet1!O5:O13</f>
-        <v>0.58333333333333337</v>
+        <v>2.46E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1019,22 +1009,20 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0.5</v>
-      </c>
-      <c r="D3">
-        <v>1.139</v>
+        <v>0.25</v>
+      </c>
+      <c r="D3" cm="1">
+        <f t="array" ref="D3:F10">Sheet1!L5:N12</f>
+        <v>0.58489999999999998</v>
       </c>
       <c r="E3">
-        <v>1.1259999999999999</v>
+        <v>0.58169999999999999</v>
       </c>
       <c r="F3">
-        <v>1.131</v>
-      </c>
-      <c r="G3">
-        <v>1.1319999999999999</v>
+        <v>0.58340000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1042,22 +1030,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D4">
-        <v>1.671</v>
+        <v>1.139</v>
       </c>
       <c r="E4">
-        <v>1.665</v>
+        <v>1.1259999999999999</v>
       </c>
       <c r="F4">
-        <v>1.661</v>
-      </c>
-      <c r="G4">
-        <v>1.6656666666666669</v>
+        <v>1.131</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1065,45 +1050,39 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D5">
-        <v>2.2200000000000002</v>
+        <v>1.671</v>
       </c>
       <c r="E5">
-        <v>2.2200000000000002</v>
+        <v>1.665</v>
       </c>
       <c r="F5">
-        <v>2.2210000000000001</v>
-      </c>
-      <c r="G5">
-        <v>2.2203333333333335</v>
+        <v>1.661</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>4.29</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="E6">
-        <v>4.26</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="F6">
-        <v>4.24</v>
-      </c>
-      <c r="G6">
-        <v>4.2633333333333336</v>
+        <v>2.2210000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1111,22 +1090,19 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>6.18</v>
+        <v>4.29</v>
       </c>
       <c r="E7">
-        <v>6.14</v>
+        <v>4.26</v>
       </c>
       <c r="F7">
-        <v>6.16</v>
-      </c>
-      <c r="G7">
-        <v>6.16</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1134,22 +1110,19 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>7.78</v>
+        <v>6.18</v>
       </c>
       <c r="E8">
-        <v>7.8</v>
+        <v>6.14</v>
       </c>
       <c r="F8">
-        <v>7.8</v>
-      </c>
-      <c r="G8">
-        <v>7.793333333333333</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1157,45 +1130,39 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>9.5500000000000007</v>
+        <v>7.78</v>
       </c>
       <c r="E9">
-        <v>9.5500000000000007</v>
+        <v>7.8</v>
       </c>
       <c r="F9">
-        <v>9.51</v>
-      </c>
-      <c r="G9">
-        <v>9.5366666666666671</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
         <v>5</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
       <c r="D10">
-        <v>2.5000000000000001E-2</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="E10">
-        <v>2.46E-2</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="F10">
-        <v>2.46E-2</v>
-      </c>
-      <c r="G10">
-        <v>2.4733333333333333E-2</v>
+        <v>9.51</v>
       </c>
     </row>
   </sheetData>
